--- a/Output/NumericalOutput Case buy water yo leader and the other process.xlsx
+++ b/Output/NumericalOutput Case buy water yo leader and the other process.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Refrigeration air conditioning equipment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="solu" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,111 +436,61 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>Iteracion</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Water_from_1_to_2</t>
+          <t>PrecioRefrigeration air conditioning equipment</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Water_from_2_to_1</t>
+          <t>PrecioMetal melting</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Leader_Water_Supply_1</t>
+          <t>Cant_Agua_del_estadoRefrigeration air conditioning equipment</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Leader_Water_Supply_2</t>
+          <t>Cant_Agua_del_estadoMetal melting</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>λ_1</t>
+          <t>DeRefrigeration air conditioning equipmentHaciaMetal melting</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>λ_2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>μ_1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>μ_2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>μ_3</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>μ_4</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>μ_5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>μ_6</t>
+          <t>DeMetal meltingHaciaRefrigeration air conditioning equipment</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Refrigeration air conditioning equipment</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.336113161425623e-06</v>
+        <v>3545</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.391809775285807e-17</v>
+        <v>26045</v>
       </c>
       <c r="D2" t="n">
-        <v>7.955574659856338e-06</v>
+        <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007939826835012855</v>
+        <v>10000</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01123413301903817</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.242740417796341</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0007955574659726433</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.000791140630210555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1257955574659727</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.250660775810521</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0007911406302105481</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0006607758105211794</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
